--- a/RabiConfig/xlsx/Sfx.xlsx
+++ b/RabiConfig/xlsx/Sfx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BlackFieldInstruction\BlackFieldInstruction\RabiConfig\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BlackFieldInstruction\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34E891D-E278-4EC6-B21A-D4CC9D3D1391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FC7826-D9D2-4A87-9B3B-0BF18A57EEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="4635" windowWidth="16605" windowHeight="9735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>string</t>
   </si>
@@ -70,15 +70,166 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TestSfx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/AddressableAssets/Sfx/TestSfx</t>
+    <t>command_select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>command_useless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sfx/command_select.ogg</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sfx/command_undo.ogg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sfx/command_useless.ogg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_generate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sfx/level_generate.ogg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sfx/level_success.ogg</t>
+  </si>
+  <si>
+    <t>lever_fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sfx/lever_fail.ogg</t>
+  </si>
+  <si>
+    <t>stage_cameraBack</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sfx/stage_cameraBack.ogg</t>
+  </si>
+  <si>
+    <t>stage_cameraEnter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sfx/stage_cameraEnter.ogg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage_stageEnter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sfx/stage_stageEnter.ogg</t>
+  </si>
+  <si>
+    <t>unit_buildingRuin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sfx/unit_buildingRuin.mp3</t>
+  </si>
+  <si>
+    <t>unit_carDrive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sfx/unit_carDrive.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sfx/unit_carDriveFail.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit_carGetOff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sfx/unit_carGetOff.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit_carGetOn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sfx/unit_carGetOn.wav</t>
+  </si>
+  <si>
+    <t>unit_rockBoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit_playerMove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sfx/unit_rockBoom.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit_tornadoMove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sfx/unit_tornadoMove.mp3</t>
+  </si>
+  <si>
+    <t>loop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage_mapSwitch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sfx/stage_mapSwitch.ogg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit_carDriveFail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>command_undo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit_peopleDie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sfx/unit_peopleDie01.wav,Assets/AddressableAssets/Sfx/unit_peopleDie02.wav,Assets/AddressableAssets/Sfx/unit_peopleDie03.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sfx/unit_playerMove.ogg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit_peopleHelp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sfx/unit_peopleHelp.ogg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,24 +581,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="59.375" customWidth="1"/>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="91.625" customWidth="1"/>
+    <col min="3" max="3" width="8.625" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
     <col min="5" max="5" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -458,7 +609,9 @@
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -473,7 +626,9 @@
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -488,40 +643,349 @@
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
